--- a/Data/TechData.xlsx
+++ b/Data/TechData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1776,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2055,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/TechData.xlsx
+++ b/Data/TechData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,8 +1900,8 @@
         <v>12</v>
       </c>
       <c r="M2">
-        <f>1/F3</f>
-        <v>0.2857142857142857</v>
+        <f>-1/F3</f>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>

--- a/Data/TechData.xlsx
+++ b/Data/TechData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2055,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/TechData.xlsx
+++ b/Data/TechData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
